--- a/biology/Zoologie/Dismorphia_cubana/Dismorphia_cubana.xlsx
+++ b/biology/Zoologie/Dismorphia_cubana/Dismorphia_cubana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dismorphia cubana est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Dismorphiinae et du genre Dismorphia.
 </t>
@@ -511,11 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dismorphia cubana a été décrit par Gottlieb August Wilhelm Herrich-Schäffer en 1862 sous le nom de Leptatis cubana[1].
-Noms vernaculaires
-Dismorphia cubana se nomme Cuban Dismorphia en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dismorphia cubana a été décrit par Gottlieb August Wilhelm Herrich-Schäffer en 1862 sous le nom de Leptatis cubana.
 </t>
         </is>
       </c>
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dismorphia cubana est un papillon de couleur marron roux et orange avec les antérieures marron roux ornées d'une barre jaune pâle séparant l'apex et d'une bande orange allant de l'aire basale à l'aire postmédiane. Les ailes postérieures sont orange bordées de marron.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dismorphia cubana se nomme Cuban Dismorphia en anglais.
 </t>
         </is>
       </c>
@@ -572,14 +590,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Période de vol
-Il vole en juillet[2]. 
-Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dismorphia cubana est un papillon de couleur marron roux et orange avec les antérieures marron roux ornées d'une barre jaune pâle séparant l'apex et d'une bande orange allant de l'aire basale à l'aire postmédiane. Les ailes postérieures sont orange bordées de marron.
+</t>
         </is>
       </c>
     </row>
@@ -604,16 +623,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dismorphia cubana est présent uniquement à Cuba[1].
-Biotope
-Il ne réside que dans la partie montagneuse de l'ile de Cuba[3]
-Protection
-Pas de statut de protection particulier.
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en juillet. 
 </t>
         </is>
       </c>
@@ -639,10 +660,119 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dismorphia cubana est présent uniquement à Cuba.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dismorphia_cubana</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_cubana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne réside que dans la partie montagneuse de l'ile de Cuba
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dismorphia_cubana</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_cubana</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dismorphia_cubana</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_cubana</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur une émission de Cuba de 1965 (valeur faciale : 2 c.).
 </t>
